--- a/2023-4-18_productivity_blister_pack_0_workers.xlsx
+++ b/2023-4-18_productivity_blister_pack_0_workers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.999131806960215</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.998263613920431</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.997395420880646</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.997395420880646</t>
         </is>
       </c>
     </row>
